--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_18_20.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_18_20.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>149001.6056100105</v>
+        <v>137956.4678734287</v>
       </c>
     </row>
     <row r="7">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100.0000000001</v>
+        <v>133100</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>94937.81247666414</v>
+        <v>96756.66497830173</v>
       </c>
       <c r="C4" t="n">
-        <v>94937.81247666413</v>
+        <v>96756.66497830173</v>
       </c>
       <c r="D4" t="n">
-        <v>94937.81247666414</v>
+        <v>96756.66497830173</v>
       </c>
       <c r="E4" t="n">
-        <v>56260.6346805183</v>
+        <v>57338.49600323978</v>
       </c>
       <c r="F4" t="n">
-        <v>56260.6346805183</v>
+        <v>57338.49600323978</v>
       </c>
       <c r="G4" t="n">
-        <v>56260.6346805183</v>
+        <v>57338.49600323978</v>
       </c>
       <c r="H4" t="n">
-        <v>56260.6346805183</v>
+        <v>57338.49600323978</v>
       </c>
       <c r="I4" t="n">
-        <v>56260.6346805183</v>
+        <v>57338.49600323978</v>
       </c>
       <c r="J4" t="n">
-        <v>56260.6346805183</v>
+        <v>57338.49600323978</v>
       </c>
       <c r="K4" t="n">
-        <v>56260.6346805183</v>
+        <v>57338.49600323978</v>
       </c>
       <c r="L4" t="n">
-        <v>56260.6346805183</v>
+        <v>57338.49600323978</v>
       </c>
       <c r="M4" t="n">
-        <v>56260.6346805183</v>
+        <v>57338.49600323978</v>
       </c>
       <c r="N4" t="n">
-        <v>56260.6346805183</v>
+        <v>57338.49600323978</v>
       </c>
       <c r="O4" t="n">
-        <v>56260.6346805183</v>
+        <v>57338.49600323978</v>
       </c>
       <c r="P4" t="n">
-        <v>56260.6346805183</v>
+        <v>57338.49600323978</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-21058.00694521772</v>
+        <v>-22876.85944685531</v>
       </c>
       <c r="C6" t="n">
-        <v>-21058.0069452177</v>
+        <v>-22876.85944685531</v>
       </c>
       <c r="D6" t="n">
-        <v>-21058.00694521772</v>
+        <v>-22876.85944685531</v>
       </c>
       <c r="E6" t="n">
-        <v>-78651.69863566305</v>
+        <v>-79729.55995838447</v>
       </c>
       <c r="F6" t="n">
-        <v>54448.301364337</v>
+        <v>53370.44004161552</v>
       </c>
       <c r="G6" t="n">
-        <v>54448.301364337</v>
+        <v>53370.44004161552</v>
       </c>
       <c r="H6" t="n">
-        <v>54448.30136433698</v>
+        <v>53370.44004161552</v>
       </c>
       <c r="I6" t="n">
-        <v>54448.301364337</v>
+        <v>53370.44004161552</v>
       </c>
       <c r="J6" t="n">
-        <v>54448.301364337</v>
+        <v>53370.44004161552</v>
       </c>
       <c r="K6" t="n">
-        <v>54448.301364337</v>
+        <v>53370.44004161552</v>
       </c>
       <c r="L6" t="n">
-        <v>54448.301364337</v>
+        <v>53370.44004161552</v>
       </c>
       <c r="M6" t="n">
-        <v>54448.301364337</v>
+        <v>53370.44004161552</v>
       </c>
       <c r="N6" t="n">
-        <v>54448.301364337</v>
+        <v>53370.44004161552</v>
       </c>
       <c r="O6" t="n">
-        <v>54448.301364337</v>
+        <v>53370.44004161552</v>
       </c>
       <c r="P6" t="n">
-        <v>54448.301364337</v>
+        <v>53370.44004161552</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_18_20.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_18_20.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>137956.4678734287</v>
+        <v>151682.8260108469</v>
       </c>
     </row>
     <row r="7">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100</v>
+        <v>133100.0000000001</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>96756.66497830173</v>
+        <v>96756.66497830175</v>
       </c>
       <c r="C4" t="n">
-        <v>96756.66497830173</v>
+        <v>96756.66497830176</v>
       </c>
       <c r="D4" t="n">
-        <v>96756.66497830173</v>
+        <v>96756.66497830175</v>
       </c>
       <c r="E4" t="n">
-        <v>57338.49600323978</v>
+        <v>57338.49600323976</v>
       </c>
       <c r="F4" t="n">
-        <v>57338.49600323978</v>
+        <v>57338.49600323977</v>
       </c>
       <c r="G4" t="n">
-        <v>57338.49600323978</v>
+        <v>57338.49600323976</v>
       </c>
       <c r="H4" t="n">
-        <v>57338.49600323978</v>
+        <v>57338.49600323977</v>
       </c>
       <c r="I4" t="n">
-        <v>57338.49600323978</v>
+        <v>57338.49600323976</v>
       </c>
       <c r="J4" t="n">
-        <v>57338.49600323978</v>
+        <v>57338.49600323977</v>
       </c>
       <c r="K4" t="n">
-        <v>57338.49600323978</v>
+        <v>57338.49600323976</v>
       </c>
       <c r="L4" t="n">
-        <v>57338.49600323978</v>
+        <v>57338.49600323977</v>
       </c>
       <c r="M4" t="n">
-        <v>57338.49600323978</v>
+        <v>57338.49600323976</v>
       </c>
       <c r="N4" t="n">
-        <v>57338.49600323978</v>
+        <v>57338.49600323977</v>
       </c>
       <c r="O4" t="n">
-        <v>57338.49600323978</v>
+        <v>57338.49600323976</v>
       </c>
       <c r="P4" t="n">
-        <v>57338.49600323978</v>
+        <v>57338.49600323977</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-22876.85944685531</v>
+        <v>-22876.85944685533</v>
       </c>
       <c r="C6" t="n">
-        <v>-22876.85944685531</v>
+        <v>-22876.85944685534</v>
       </c>
       <c r="D6" t="n">
-        <v>-22876.85944685531</v>
+        <v>-22876.85944685533</v>
       </c>
       <c r="E6" t="n">
-        <v>-79729.55995838447</v>
+        <v>-79729.55995838452</v>
       </c>
       <c r="F6" t="n">
-        <v>53370.44004161552</v>
+        <v>53370.44004161553</v>
       </c>
       <c r="G6" t="n">
-        <v>53370.44004161552</v>
+        <v>53370.44004161553</v>
       </c>
       <c r="H6" t="n">
-        <v>53370.44004161552</v>
+        <v>53370.44004161553</v>
       </c>
       <c r="I6" t="n">
-        <v>53370.44004161552</v>
+        <v>53370.44004161553</v>
       </c>
       <c r="J6" t="n">
-        <v>53370.44004161552</v>
+        <v>53370.44004161553</v>
       </c>
       <c r="K6" t="n">
-        <v>53370.44004161552</v>
+        <v>53370.44004161553</v>
       </c>
       <c r="L6" t="n">
-        <v>53370.44004161552</v>
+        <v>53370.44004161553</v>
       </c>
       <c r="M6" t="n">
-        <v>53370.44004161552</v>
+        <v>53370.44004161553</v>
       </c>
       <c r="N6" t="n">
-        <v>53370.44004161552</v>
+        <v>53370.44004161553</v>
       </c>
       <c r="O6" t="n">
-        <v>53370.44004161552</v>
+        <v>53370.44004161553</v>
       </c>
       <c r="P6" t="n">
-        <v>53370.44004161552</v>
+        <v>53370.44004161553</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_18_20.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_18_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>151682.8260108469</v>
+        <v>26572.92721337025</v>
       </c>
     </row>
     <row r="7">
@@ -26429,37 +26429,37 @@
         <v>57338.49600323976</v>
       </c>
       <c r="F4" t="n">
+        <v>57338.49600323976</v>
+      </c>
+      <c r="G4" t="n">
         <v>57338.49600323977</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>57338.49600323976</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>57338.49600323977</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>57338.49600323976</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
         <v>57338.49600323977</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>57338.49600323976</v>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
         <v>57338.49600323977</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>57338.49600323976</v>
       </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
         <v>57338.49600323977</v>
       </c>
-      <c r="O4" t="n">
+      <c r="P4" t="n">
         <v>57338.49600323976</v>
-      </c>
-      <c r="P4" t="n">
-        <v>57338.49600323977</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-22876.85944685533</v>
+        <v>-38027.5334168901</v>
       </c>
       <c r="C6" t="n">
-        <v>-22876.85944685534</v>
+        <v>-38027.5334168901</v>
       </c>
       <c r="D6" t="n">
-        <v>-22876.85944685533</v>
+        <v>-38027.53341689009</v>
       </c>
       <c r="E6" t="n">
-        <v>-79729.55995838452</v>
+        <v>-94539.5767974984</v>
       </c>
       <c r="F6" t="n">
-        <v>53370.44004161553</v>
+        <v>38560.42320250164</v>
       </c>
       <c r="G6" t="n">
-        <v>53370.44004161553</v>
+        <v>38560.42320250164</v>
       </c>
       <c r="H6" t="n">
-        <v>53370.44004161553</v>
+        <v>38560.42320250164</v>
       </c>
       <c r="I6" t="n">
-        <v>53370.44004161553</v>
+        <v>38560.42320250164</v>
       </c>
       <c r="J6" t="n">
-        <v>53370.44004161553</v>
+        <v>38560.42320250164</v>
       </c>
       <c r="K6" t="n">
-        <v>53370.44004161553</v>
+        <v>38560.42320250164</v>
       </c>
       <c r="L6" t="n">
-        <v>53370.44004161553</v>
+        <v>38560.42320250164</v>
       </c>
       <c r="M6" t="n">
-        <v>53370.44004161553</v>
+        <v>38560.42320250164</v>
       </c>
       <c r="N6" t="n">
-        <v>53370.44004161553</v>
+        <v>38560.42320250164</v>
       </c>
       <c r="O6" t="n">
-        <v>53370.44004161553</v>
+        <v>38560.42320250164</v>
       </c>
       <c r="P6" t="n">
-        <v>53370.44004161553</v>
+        <v>38560.42320250164</v>
       </c>
     </row>
   </sheetData>
